--- a/experiment/quadratic/ex9.2.3/Experimentos_Generador/ex9.2.3(Quadratic)__M_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/quadratic/ex9.2.3/Experimentos_Generador/ex9.2.3(Quadratic)__M_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -57,16 +57,16 @@
     <t>MIU_value</t>
   </si>
   <si>
-    <t>-40 + x_1 + x_2 + y_1 - 2y_2</t>
-  </si>
-  <si>
-    <t>-29.227749368863755</t>
+    <t>-16.45 + x_1 + x_2 + y_1 - 2y_2</t>
+  </si>
+  <si>
+    <t>-23.55</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.15666675595456303</t>
+    <t>0.86</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -78,94 +78,100 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>10 - x_1 - 0.5802581166695251y_1 + 0.18556736433322096y_2</t>
-  </si>
-  <si>
-    <t>13.05933769727077</t>
+    <t>20.12839819112222 - x_1 + 0.08539807211710101y_1 + 2.0974413899797693y_2</t>
+  </si>
+  <si>
+    <t>-10.12839819112222</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.13800456429576358</t>
-  </si>
-  <si>
-    <t>0.5940234195495051</t>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>6.8999999999999995</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>5.159464476972512 - x_2 - 0.991360228489825y_1 + 0.8688325598000715y_2</t>
+  </si>
+  <si>
+    <t>4.840535523027488</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>9.7</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>10 - x_2 - 0.5802581166695251y_1 + 0.18556736433322096y_2</t>
-  </si>
-  <si>
-    <t>13.38303994329069</t>
-  </si>
-  <si>
-    <t>0.5184691683237959</t>
-  </si>
-  <si>
-    <t>0.07502722966188746</t>
-  </si>
-  <si>
-    <t>-10 - 0.9072163178333893y_1 + 0.29012905833476255y_2</t>
-  </si>
-  <si>
-    <t>-4.1462888361128005</t>
-  </si>
-  <si>
-    <t>0.6594478945100174</t>
-  </si>
-  <si>
-    <t>0.744816416076108</t>
-  </si>
-  <si>
-    <t>-20 + 0.9193915079875012y_1 - 0.25205796251301965y_2</t>
-  </si>
-  <si>
-    <t>-26.336355749248064</t>
+    <t>24.469905985957396 + 0.9752945376651194y_1 + 2.25386171605379y_2</t>
+  </si>
+  <si>
+    <t>-34.469905985957396</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>5.6000000000000005</t>
+  </si>
+  <si>
+    <t>8.299999999999999</t>
+  </si>
+  <si>
+    <t>-17.988035658026536 - 0.5423001595735621y_1 - 1.7598040282313723y_2</t>
+  </si>
+  <si>
+    <t>-2.0119643419734636</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.8823228668879504</t>
-  </si>
-  <si>
-    <t>0.9278250045820335</t>
-  </si>
-  <si>
-    <t>0.567662165580874</t>
-  </si>
-  <si>
-    <t>-10 + 0.4909476788590082y_1 + 0.5351642059562449y_2</t>
-  </si>
-  <si>
-    <t>-19.832805873821666</t>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>-41.5591050815185 + 2.0179935737236696y_1 + 1.3025824110436748y_2</t>
+  </si>
+  <si>
+    <t>-31.559105081518503</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.2917832556941835</t>
-  </si>
-  <si>
-    <t>0.23691635543354894</t>
-  </si>
-  <si>
-    <t>0.5727661854999617</t>
-  </si>
-  <si>
-    <t>-20 - 0.29012905833476255y_1 + 0.09278368216661048y_2</t>
-  </si>
-  <si>
-    <t>-18.127974911432112</t>
-  </si>
-  <si>
-    <t>0.8952090405611031</t>
-  </si>
-  <si>
-    <t>0.30312647023293005</t>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>9.9</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>-41.785557538974174 - 0.45855051767225985y_1 + 0.47678210163037016y_2</t>
+  </si>
+  <si>
+    <t>-21.785557538974174</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>0.2</t>
   </si>
   <si>
     <t>x_1</t>
@@ -180,40 +186,40 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>0.6847124798650022</t>
-  </si>
-  <si>
-    <t>0.3610102338450799</t>
-  </si>
-  <si>
-    <t>-9.531809102458938</t>
-  </si>
-  <si>
-    <t>-9.629168509942552</t>
+    <t>1.55</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>-5.1</t>
+  </si>
+  <si>
+    <t>-8.65</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-19.282495040241113</t>
-  </si>
-  <si>
-    <t>-20.349603850726556</t>
+    <t>-26.885768177464936</t>
+  </si>
+  <si>
+    <t>-18.928761125568965</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-1.0333761243061261</t>
-  </si>
-  <si>
-    <t>-0.42665241791310504</t>
-  </si>
-  <si>
-    <t>2.4965955405388573</t>
-  </si>
-  <si>
-    <t>1.397050889441092</t>
+    <t>8.719999999999999</t>
+  </si>
+  <si>
+    <t>12.18</t>
+  </si>
+  <si>
+    <t>-14.397516931627774</t>
+  </si>
+  <si>
+    <t>-34.254859063011175</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -701,87 +707,87 @@
         <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -799,30 +805,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -840,17 +846,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -868,27 +874,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -906,17 +912,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.26463360604946584</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>0.8274935541897852</v>
+        <v>2.67</v>
       </c>
     </row>
   </sheetData>
